--- a/AnnualSRSSummaryReport/ReturnA/ByAgency/FiscalYearData/SRS_AnnualSummary_ReturnA (6).xlsx
+++ b/AnnualSRSSummaryReport/ReturnA/ByAgency/FiscalYearData/SRS_AnnualSummary_ReturnA (6).xlsx
@@ -376,7 +376,7 @@
     <row r="3" ht="7.5" customHeight="1">
       <c s="1" t="inlineStr" r="M3">
         <is>
-          <t xml:space="preserve">Printed On: 10/22/2025</t>
+          <t xml:space="preserve">Printed On: 10/23/2025</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
               <color rgb="FF000000"/>
               <rFont val="verdana"/>
             </rPr>
-            <t xml:space="preserve"> CARNEGIE BOROUGH</t>
+            <t xml:space="preserve"> KENNEDY TOWNSHIP</t>
           </r>
         </is>
       </c>
@@ -838,7 +838,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -872,7 +872,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -944,7 +944,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -978,7 +978,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -1156,7 +1156,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -1190,7 +1190,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -1262,7 +1262,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -1296,7 +1296,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -1686,7 +1686,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -1720,7 +1720,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -1792,7 +1792,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2110,7 +2110,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -2144,7 +2144,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -2216,7 +2216,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -2250,7 +2250,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -2266,7 +2266,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -2322,7 +2322,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -2356,7 +2356,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -2372,7 +2372,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -2428,7 +2428,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -2462,7 +2462,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -2640,7 +2640,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">69</t>
+            <t xml:space="preserve">92</t>
           </r>
         </is>
       </c>
@@ -2674,7 +2674,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">69</t>
+            <t xml:space="preserve">92</t>
           </r>
         </is>
       </c>
@@ -2690,7 +2690,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">32</t>
           </r>
         </is>
       </c>
@@ -2709,7 +2709,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -2746,7 +2746,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
@@ -2780,23 +2780,23 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="J39">
+        <is>
+          <r>
+            <rPr>
+              <b/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
             <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c s="13" t="inlineStr" r="J39">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2852,7 +2852,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -2886,23 +2886,23 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
+            <t xml:space="preserve">6</t>
+          </r>
+        </is>
+      </c>
+      <c s="15" t="inlineStr" r="J40">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
             <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c s="15" t="inlineStr" r="J40">
-        <is>
-          <r>
-            <rPr>
-              <b val="0"/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="9"/>
-              <color rgb="FF000000"/>
-              <rFont val="Arial"/>
-            </rPr>
-            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3064,7 +3064,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -3098,7 +3098,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -3382,7 +3382,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">85</t>
+            <t xml:space="preserve">111</t>
           </r>
         </is>
       </c>
@@ -3416,7 +3416,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">85</t>
+            <t xml:space="preserve">111</t>
           </r>
         </is>
       </c>
@@ -3432,7 +3432,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">37</t>
           </r>
         </is>
       </c>
@@ -3451,7 +3451,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -3488,7 +3488,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">31</t>
           </r>
         </is>
       </c>
@@ -3522,7 +3522,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">31</t>
           </r>
         </is>
       </c>
@@ -3538,7 +3538,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">24</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -3557,7 +3557,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -3594,7 +3594,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -3628,7 +3628,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -3700,7 +3700,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">44</t>
+            <t xml:space="preserve">38</t>
           </r>
         </is>
       </c>
@@ -3734,7 +3734,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">44</t>
+            <t xml:space="preserve">38</t>
           </r>
         </is>
       </c>
@@ -3750,7 +3750,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -3912,7 +3912,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -3946,7 +3946,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -3962,7 +3962,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -3981,7 +3981,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4018,7 +4018,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">31</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -4052,7 +4052,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">31</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -4087,7 +4087,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4124,7 +4124,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -4158,7 +4158,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -4174,7 +4174,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -4386,7 +4386,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4442,7 +4442,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">27</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -4476,7 +4476,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">27</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -4492,7 +4492,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -4548,7 +4548,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4582,7 +4582,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4598,7 +4598,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4654,7 +4654,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4688,7 +4688,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4704,7 +4704,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -5078,7 +5078,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -5112,7 +5112,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -5128,7 +5128,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -5184,7 +5184,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -5218,7 +5218,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -5234,7 +5234,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -5290,7 +5290,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -5324,7 +5324,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -5340,7 +5340,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -5396,7 +5396,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -5430,7 +5430,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -5502,7 +5502,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -5536,7 +5536,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -6032,7 +6032,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -6066,7 +6066,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -6138,7 +6138,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -6172,7 +6172,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -6188,7 +6188,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -6244,7 +6244,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -6278,7 +6278,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -6350,7 +6350,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">28</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -6384,7 +6384,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">28</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -6400,7 +6400,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -6456,7 +6456,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">112</t>
+            <t xml:space="preserve">19</t>
           </r>
         </is>
       </c>
@@ -6490,7 +6490,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">112</t>
+            <t xml:space="preserve">19</t>
           </r>
         </is>
       </c>
@@ -6506,7 +6506,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -6668,7 +6668,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">129</t>
+            <t xml:space="preserve">43</t>
           </r>
         </is>
       </c>
@@ -6702,7 +6702,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">129</t>
+            <t xml:space="preserve">43</t>
           </r>
         </is>
       </c>
@@ -6718,7 +6718,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">32</t>
+            <t xml:space="preserve">10</t>
           </r>
         </is>
       </c>
@@ -6737,7 +6737,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -6774,7 +6774,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">409</t>
+            <t xml:space="preserve">169</t>
           </r>
         </is>
       </c>
@@ -6808,7 +6808,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">409</t>
+            <t xml:space="preserve">169</t>
           </r>
         </is>
       </c>
@@ -6824,7 +6824,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">111</t>
+            <t xml:space="preserve">48</t>
           </r>
         </is>
       </c>
@@ -6843,7 +6843,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
